--- a/Mode_Choice_Comparison_Summary.xlsx
+++ b/Mode_Choice_Comparison_Summary.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhanchaoyang/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhanchaoyang/Desktop/Mexico-City-survey-comp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5997CAA-3C20-3B41-B398-CDD264A56470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B88DA555-AF35-6341-937B-9189EF830446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="620" windowWidth="24540" windowHeight="19240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,19 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
-  <si>
-    <t>A pie</t>
-  </si>
-  <si>
-    <t>Taxi</t>
-  </si>
-  <si>
-    <t>Bicicleta</t>
-  </si>
-  <si>
-    <t>Moto</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
   <si>
     <t>Motorcycle</t>
   </si>
@@ -87,19 +75,7 @@
     <t>Bus</t>
   </si>
   <si>
-    <t>Vehículo privado como conductor</t>
-  </si>
-  <si>
-    <t>Moto como conductor</t>
-  </si>
-  <si>
-    <t>Otro</t>
-  </si>
-  <si>
     <t>Other</t>
-  </si>
-  <si>
-    <t>Transmilenio</t>
   </si>
   <si>
     <t>Walk</t>
@@ -123,9 +99,6 @@
     <t>Number</t>
   </si>
   <si>
-    <t>Bus alimentador (feeder bus)</t>
-  </si>
-  <si>
     <t>sum</t>
   </si>
   <si>
@@ -135,34 +108,91 @@
     <t>Mode</t>
   </si>
   <si>
-    <t>Metro</t>
-  </si>
-  <si>
     <t>Metro &amp;Light rail</t>
-  </si>
-  <si>
-    <t>Tren Ligero</t>
-  </si>
-  <si>
-    <t>Metrobus</t>
-  </si>
-  <si>
-    <t>Autobus RTP Autobus</t>
-  </si>
-  <si>
-    <t>Trolebus (trolley?)</t>
-  </si>
-  <si>
-    <t>Suburbano??</t>
-  </si>
-  <si>
-    <t>Colectivo (??Van)</t>
   </si>
   <si>
     <t>NA</t>
   </si>
   <si>
-    <t>automovil</t>
+    <t>automovil (01)</t>
+  </si>
+  <si>
+    <t>Metro(05)</t>
+  </si>
+  <si>
+    <t>Bicicleta (07)</t>
+  </si>
+  <si>
+    <t>Moto (09)</t>
+  </si>
+  <si>
+    <t>Taxi (App) (03)</t>
+  </si>
+  <si>
+    <t>Taxi (04)</t>
+  </si>
+  <si>
+    <t>Otro (15)</t>
+  </si>
+  <si>
+    <t>metrobus,Mexibus(11)</t>
+  </si>
+  <si>
+    <t>Tren Ligero(10)</t>
+  </si>
+  <si>
+    <t>Trolebus (Trolley)</t>
+  </si>
+  <si>
+    <t>Autobus RTP M1 (06)</t>
+  </si>
+  <si>
+    <t>Autobus (08)</t>
+  </si>
+  <si>
+    <t>Tren suburbano (13)</t>
+  </si>
+  <si>
+    <t>Colectivo/Micro (02)</t>
+  </si>
+  <si>
+    <t>caminar en la calle (14)</t>
+  </si>
+  <si>
+    <t>Otro ©</t>
+  </si>
+  <si>
+    <t>Bicicleta (B)</t>
+  </si>
+  <si>
+    <t>automovil (9)</t>
+  </si>
+  <si>
+    <t>Taxi (8)</t>
+  </si>
+  <si>
+    <t>Moto (A)</t>
+  </si>
+  <si>
+    <t>Metro (1)</t>
+  </si>
+  <si>
+    <t>Tren Ligero (2)</t>
+  </si>
+  <si>
+    <t>Suburbano?? (6)</t>
+  </si>
+  <si>
+    <t>Metrobus (3)</t>
+  </si>
+  <si>
+    <t>Trolebus (trolley?) (4)</t>
+  </si>
+  <si>
+    <t>Autobus RTP Autobus (5)</t>
+  </si>
+  <si>
+    <t>Colectivo (??Van) (7)</t>
   </si>
 </sst>
 </file>
@@ -585,7 +615,7 @@
     </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -788,9 +818,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="14" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1091,10 +1118,10 @@
   <dimension ref="A1:AEY56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K25" sqref="K25"/>
+      <selection pane="bottomRight" activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -1949,22 +1976,22 @@
     <row r="2" spans="1:831" s="2" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="22"/>
       <c r="B2" s="3" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="H2" s="40"/>
       <c r="I2" s="40"/>
@@ -2793,23 +2820,21 @@
     </row>
     <row r="3" spans="1:831" s="8" customFormat="1" ht="19" x14ac:dyDescent="0.2">
       <c r="A3" s="23" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B3" s="41"/>
       <c r="C3" s="42" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D3" s="43"/>
-      <c r="E3" s="41">
+      <c r="E3" s="41" t="e">
         <f>G3/G56</f>
-        <v>0.590523836912759</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F3" s="42" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
-      <c r="G3" s="43">
-        <v>54415</v>
-      </c>
+      <c r="G3" s="43"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -5303,28 +5328,24 @@
     </row>
     <row r="6" spans="1:831" s="10" customFormat="1" ht="19" x14ac:dyDescent="0.2">
       <c r="A6" s="26" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
-      <c r="B6" s="50">
+      <c r="B6" s="50" t="e">
         <f>D6/D56</f>
-        <v>0.12140117185853391</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="C6" s="51" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
-      <c r="D6" s="52">
-        <v>2880</v>
-      </c>
-      <c r="E6" s="50">
+      <c r="D6" s="52"/>
+      <c r="E6" s="50" t="e">
         <f>G6/G56</f>
-        <v>4.8824161394293901E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F6" s="51" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
-      <c r="G6" s="52">
-        <v>4499</v>
-      </c>
+      <c r="G6" s="52"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -10317,28 +10338,24 @@
     </row>
     <row r="12" spans="1:831" s="7" customFormat="1" ht="19" x14ac:dyDescent="0.2">
       <c r="A12" s="23" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
-      <c r="B12" s="41">
+      <c r="B12" s="41" t="e">
         <f>(D12+D13+D14)/D56</f>
-        <v>0.30889853728449185</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
-      <c r="D12" s="43">
-        <v>7328</v>
-      </c>
-      <c r="E12" s="41">
+      <c r="D12" s="43"/>
+      <c r="E12" s="41" t="e">
         <f>G12/G56</f>
-        <v>0.16127491942222752</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F12" s="42" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
-      <c r="G12" s="43">
-        <v>14861</v>
-      </c>
+      <c r="G12" s="43"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -14498,28 +14515,24 @@
     </row>
     <row r="17" spans="1:831" s="9" customFormat="1" ht="19" x14ac:dyDescent="0.2">
       <c r="A17" s="26" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
-      <c r="B17" s="50">
+      <c r="B17" s="50" t="e">
         <f>D17/D56</f>
-        <v>0.10453989798929308</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="C17" s="51" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
-      <c r="D17" s="52">
-        <v>2480</v>
-      </c>
-      <c r="E17" s="50">
+      <c r="D17" s="52"/>
+      <c r="E17" s="50" t="e">
         <f>G17/G56</f>
-        <v>4.986597501817748E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F17" s="51" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
-      <c r="G17" s="52">
-        <v>4595</v>
-      </c>
+      <c r="G17" s="52"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -15351,7 +15364,9 @@
       <c r="C18" s="53"/>
       <c r="D18" s="54"/>
       <c r="E18" s="55"/>
-      <c r="F18" s="53"/>
+      <c r="F18" s="53" t="s">
+        <v>20</v>
+      </c>
       <c r="G18" s="54"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -21178,28 +21193,24 @@
     </row>
     <row r="25" spans="1:831" s="8" customFormat="1" ht="19" x14ac:dyDescent="0.2">
       <c r="A25" s="24" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
-      <c r="B25" s="63">
+      <c r="B25" s="63" t="e">
         <f>D25/D56</f>
-        <v>2.7652489145554945E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="C25" s="45" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
-      <c r="D25" s="46">
-        <v>656</v>
-      </c>
-      <c r="E25" s="63">
+      <c r="D25" s="46"/>
+      <c r="E25" s="63" t="e">
         <f>G25/G56</f>
-        <v>2.9930437236155273E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F25" s="45" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
-      <c r="G25" s="46">
-        <v>2758</v>
-      </c>
+      <c r="G25" s="46"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -26192,28 +26203,24 @@
     </row>
     <row r="31" spans="1:831" s="10" customFormat="1" ht="19" x14ac:dyDescent="0.2">
       <c r="A31" s="26" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
-      <c r="B31" s="50">
+      <c r="B31" s="50" t="e">
         <f>D31/D56</f>
-        <v>0.32672933440121399</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="C31" s="51" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
-      <c r="D31" s="52">
-        <v>7751</v>
-      </c>
-      <c r="E31" s="50">
+      <c r="D31" s="52"/>
+      <c r="E31" s="50" t="e">
         <f>G31/G56</f>
-        <v>0.10404028346012349</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F31" s="51" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
-      <c r="G31" s="52">
-        <v>9587</v>
-      </c>
+      <c r="G31" s="52"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -27043,11 +27050,13 @@
       <c r="A32" s="27"/>
       <c r="B32" s="55"/>
       <c r="C32" s="53" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D32" s="54"/>
       <c r="E32" s="55"/>
-      <c r="F32" s="53"/>
+      <c r="F32" s="53" t="s">
+        <v>23</v>
+      </c>
       <c r="G32" s="54"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -27878,11 +27887,13 @@
       <c r="A33" s="27"/>
       <c r="B33" s="55"/>
       <c r="C33" s="56" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D33" s="54"/>
       <c r="E33" s="55"/>
-      <c r="F33" s="53"/>
+      <c r="F33" s="53" t="s">
+        <v>27</v>
+      </c>
       <c r="G33" s="54"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -30377,7 +30388,7 @@
     </row>
     <row r="36" spans="1:831" s="38" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="37" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B36" s="64"/>
       <c r="C36" s="65"/>
@@ -31212,7 +31223,7 @@
     </row>
     <row r="37" spans="1:831" s="10" customFormat="1" ht="19" x14ac:dyDescent="0.2">
       <c r="A37" s="27" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B37" s="55"/>
       <c r="C37" s="53"/>
@@ -32047,28 +32058,24 @@
     </row>
     <row r="38" spans="1:831" s="13" customFormat="1" ht="19" x14ac:dyDescent="0.2">
       <c r="A38" s="30" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
-      <c r="B38" s="67">
+      <c r="B38" s="67" t="e">
         <f>D38/D56</f>
-        <v>0.10550942123677444</v>
+        <v>#DIV/0!</v>
       </c>
-      <c r="C38" s="70" t="s">
-        <v>25</v>
+      <c r="C38" s="69" t="s">
+        <v>38</v>
       </c>
-      <c r="D38" s="69">
-        <v>2503</v>
+      <c r="D38" s="68"/>
+      <c r="E38" s="67" t="e">
+        <f>G38/G56</f>
+        <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="67">
-        <f>G38/G56</f>
-        <v>4.937762488198205E-3</v>
+      <c r="F38" s="69" t="s">
+        <v>22</v>
       </c>
-      <c r="F38" s="68" t="s">
-        <v>18</v>
-      </c>
-      <c r="G38" s="69">
-        <v>455</v>
-      </c>
+      <c r="G38" s="68"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
@@ -32898,11 +32905,13 @@
       <c r="A39" s="31"/>
       <c r="B39" s="55"/>
       <c r="C39" s="56" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="D39" s="54"/>
       <c r="E39" s="55"/>
-      <c r="F39" s="53"/>
+      <c r="F39" s="53" t="s">
+        <v>24</v>
+      </c>
       <c r="G39" s="54"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -33733,11 +33742,13 @@
       <c r="A40" s="31"/>
       <c r="B40" s="55"/>
       <c r="C40" s="53" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="D40" s="54"/>
       <c r="E40" s="55"/>
-      <c r="F40" s="53"/>
+      <c r="F40" s="53" t="s">
+        <v>25</v>
+      </c>
       <c r="G40" s="54"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -34570,7 +34581,9 @@
       <c r="C41" s="53"/>
       <c r="D41" s="54"/>
       <c r="E41" s="55"/>
-      <c r="F41" s="53"/>
+      <c r="F41" s="53" t="s">
+        <v>26</v>
+      </c>
       <c r="G41" s="54"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
@@ -37067,11 +37080,13 @@
       <c r="A44" s="31"/>
       <c r="B44" s="55"/>
       <c r="C44" s="56" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D44" s="54"/>
       <c r="E44" s="55"/>
-      <c r="F44" s="53"/>
+      <c r="F44" s="53" t="s">
+        <v>28</v>
+      </c>
       <c r="G44" s="54"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
@@ -38733,12 +38748,12 @@
     </row>
     <row r="46" spans="1:831" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A46" s="32"/>
-      <c r="B46" s="71"/>
-      <c r="C46" s="72"/>
-      <c r="D46" s="73"/>
-      <c r="E46" s="71"/>
-      <c r="F46" s="72"/>
-      <c r="G46" s="73"/>
+      <c r="B46" s="70"/>
+      <c r="C46" s="71"/>
+      <c r="D46" s="72"/>
+      <c r="E46" s="70"/>
+      <c r="F46" s="71"/>
+      <c r="G46" s="72"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
@@ -39566,28 +39581,24 @@
     </row>
     <row r="47" spans="1:831" s="10" customFormat="1" ht="19" x14ac:dyDescent="0.2">
       <c r="A47" s="27" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
-      <c r="B47" s="74">
+      <c r="B47" s="73" t="e">
         <f>D47/D56</f>
-        <v>5.2691480841377562E-3</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="C47" s="53" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
-      <c r="D47" s="54">
-        <v>125</v>
-      </c>
-      <c r="E47" s="74">
+      <c r="D47" s="54"/>
+      <c r="E47" s="73" t="e">
         <f>G47/G56</f>
-        <v>1.0602624068065157E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F47" s="53" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
-      <c r="G47" s="54">
-        <v>977</v>
-      </c>
+      <c r="G47" s="54"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
@@ -47079,25 +47090,25 @@
     </row>
     <row r="56" spans="1:831" s="20" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A56" s="35" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
-      <c r="B56" s="75">
+      <c r="B56" s="74" t="e">
         <f>SUM(B3:B55)</f>
-        <v>1</v>
+        <v>#DIV/0!</v>
       </c>
-      <c r="C56" s="76"/>
-      <c r="D56" s="77">
+      <c r="C56" s="75"/>
+      <c r="D56" s="76">
         <f>SUM(D3:D49)</f>
-        <v>23723</v>
+        <v>0</v>
       </c>
-      <c r="E56" s="75">
+      <c r="E56" s="74" t="e">
         <f>SUM(E3:E55)</f>
-        <v>1</v>
+        <v>#DIV/0!</v>
       </c>
-      <c r="F56" s="76"/>
-      <c r="G56" s="77">
+      <c r="F56" s="75"/>
+      <c r="G56" s="76">
         <f>SUM(G3:G47)</f>
-        <v>92147</v>
+        <v>0</v>
       </c>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>

--- a/Mode_Choice_Comparison_Summary.xlsx
+++ b/Mode_Choice_Comparison_Summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhanchaoyang/Desktop/Mexico-City-survey-comp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70686A0D-5269-A14B-AAA4-0C0899600E19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1478D3E3-F637-7C46-9C04-23C6C79EC2F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6520" yWindow="620" windowWidth="32620" windowHeight="19220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12940" yWindow="620" windowWidth="32620" windowHeight="19220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="3" r:id="rId1"/>
@@ -62,12 +62,36 @@
         </r>
       </text>
     </comment>
+    <comment ref="K7" authorId="0" shapeId="0" xr:uid="{1B63AC70-7107-7B43-AD51-40EBCF58CC88}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Eilleen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+I'm not sure whether motorized bicycles should be categorized under "Bicycle" or "Motorcycle".</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="112">
   <si>
     <t>Motorcycle</t>
   </si>
@@ -105,9 +129,6 @@
     <t>%</t>
   </si>
   <si>
-    <t>Mode</t>
-  </si>
-  <si>
     <t>Metro &amp;Light rail</t>
   </si>
   <si>
@@ -132,16 +153,7 @@
     <t>Taxi (04)</t>
   </si>
   <si>
-    <t>Otro (15)</t>
-  </si>
-  <si>
     <t>metrobus,Mexibus(11)</t>
-  </si>
-  <si>
-    <t>Tren Ligero(10)</t>
-  </si>
-  <si>
-    <t>Trolebus (Trolley)</t>
   </si>
   <si>
     <t>Autobus RTP M1 (06)</t>
@@ -376,6 +388,45 @@
   </si>
   <si>
     <t>Total trip:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Single Mode</t>
+  </si>
+  <si>
+    <t>Trolebus (Trolley) (10)</t>
+  </si>
+  <si>
+    <t>Tren Ligero(12)</t>
+  </si>
+  <si>
+    <t>Mexicable  (15)</t>
+  </si>
+  <si>
+    <t>Bicitaxi (16)</t>
+  </si>
+  <si>
+    <t>Mototaxi (17)</t>
+  </si>
+  <si>
+    <t>Transporte  escolar  (18)</t>
+  </si>
+  <si>
+    <t>Transporte  de personal (19)</t>
+  </si>
+  <si>
+    <t>Otro (20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Three mode </t>
+  </si>
+  <si>
+    <t>Four mode</t>
+  </si>
+  <si>
+    <t>five mode</t>
+  </si>
+  <si>
+    <t>Six mode</t>
   </si>
 </sst>
 </file>
@@ -1310,10 +1361,10 @@
   <dimension ref="A1:AEY92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B65" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="G77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E93" sqref="E93"/>
+      <selection pane="bottomRight" activeCell="M93" sqref="M93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1327,7 +1378,10 @@
     <col min="8" max="8" width="17.83203125" style="5" customWidth="1"/>
     <col min="9" max="9" width="33.5" style="1" customWidth="1"/>
     <col min="10" max="10" width="18.5" style="19" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="11" max="11" width="17.83203125" style="5" customWidth="1"/>
+    <col min="12" max="12" width="33.5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="18.5" style="19" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:831" s="6" customFormat="1" ht="25" x14ac:dyDescent="0.2">
@@ -1345,9 +1399,11 @@
       </c>
       <c r="I1" s="15"/>
       <c r="J1" s="16"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
+      <c r="K1" s="14">
+        <v>2017</v>
+      </c>
+      <c r="L1" s="15"/>
+      <c r="M1" s="16"/>
       <c r="N1" s="39"/>
       <c r="O1" s="39"/>
       <c r="P1" s="39"/>
@@ -2173,7 +2229,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>9</v>
@@ -2182,7 +2238,7 @@
         <v>11</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G2" s="18" t="s">
         <v>9</v>
@@ -2191,14 +2247,20 @@
         <v>11</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="J2" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
+      <c r="K2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>9</v>
+      </c>
       <c r="N2" s="40"/>
       <c r="O2" s="40"/>
       <c r="P2" s="40"/>
@@ -3024,25 +3086,27 @@
       </c>
       <c r="B3" s="41"/>
       <c r="C3" s="42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" s="43">
         <v>0</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
-      <c r="H3" s="41" t="e">
+      <c r="H3" s="41">
         <f>J3/J88</f>
-        <v>#DIV/0!</v>
+        <v>0.45918579513573404</v>
       </c>
       <c r="I3" s="42" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
-      <c r="J3" s="43"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
+      <c r="J3" s="43">
+        <v>161216</v>
+      </c>
+      <c r="K3" s="41"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="43"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -3870,9 +3934,9 @@
       <c r="H4" s="44"/>
       <c r="I4" s="45"/>
       <c r="J4" s="46"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="46"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
@@ -4700,9 +4764,9 @@
       <c r="H5" s="47"/>
       <c r="I5" s="48"/>
       <c r="J5" s="49"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="49"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
@@ -5527,33 +5591,35 @@
         <v>4</v>
       </c>
       <c r="B6" s="50">
-        <f>D6/D88</f>
-        <v>2.5775163339994162E-2</v>
+        <f>D6/D92</f>
+        <v>1.9771542240573856E-2</v>
       </c>
       <c r="C6" s="51" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D6" s="52">
         <f>4558+34</f>
         <v>4592</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G6" s="10">
         <v>7</v>
       </c>
-      <c r="H6" s="50" t="e">
+      <c r="H6" s="50">
         <f>J6/J88</f>
-        <v>#DIV/0!</v>
+        <v>3.2871819556753092E-2</v>
       </c>
       <c r="I6" s="51" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
-      <c r="J6" s="52"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
+      <c r="J6" s="52">
+        <v>11541</v>
+      </c>
+      <c r="K6" s="50"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="52"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
@@ -6381,9 +6447,9 @@
       <c r="H7" s="55"/>
       <c r="I7" s="56"/>
       <c r="J7" s="57"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="57"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
@@ -7211,9 +7277,9 @@
       <c r="H8" s="55"/>
       <c r="I8" s="53"/>
       <c r="J8" s="54"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="54"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
@@ -8041,9 +8107,9 @@
       <c r="H9" s="55"/>
       <c r="I9" s="53"/>
       <c r="J9" s="54"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="54"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
@@ -8871,9 +8937,9 @@
       <c r="H10" s="55"/>
       <c r="I10" s="53"/>
       <c r="J10" s="54"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="54"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
@@ -9701,9 +9767,9 @@
       <c r="H11" s="55"/>
       <c r="I11" s="53"/>
       <c r="J11" s="54"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="54"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
@@ -10528,33 +10594,35 @@
         <v>5</v>
       </c>
       <c r="B12" s="41">
-        <f>(D12+D13+D14)/D88</f>
-        <v>0.36789667482431126</v>
+        <f>(D12+D13+D14)/D92</f>
+        <v>0.28220518141853929</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D12" s="43">
         <f>65534+9</f>
         <v>65543</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G12" s="7">
         <v>155</v>
       </c>
-      <c r="H12" s="41" t="e">
+      <c r="H12" s="41">
         <f>J12/J88</f>
-        <v>#DIV/0!</v>
+        <v>0.30511462840118375</v>
       </c>
       <c r="I12" s="42" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
-      <c r="J12" s="43"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
+      <c r="J12" s="43">
+        <v>107123</v>
+      </c>
+      <c r="K12" s="41"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="43"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
@@ -11380,7 +11448,7 @@
       <c r="C13" s="45"/>
       <c r="D13" s="46"/>
       <c r="F13" s="8" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G13" s="8">
         <v>1</v>
@@ -11388,9 +11456,9 @@
       <c r="H13" s="44"/>
       <c r="I13" s="45"/>
       <c r="J13" s="46"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="46"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
@@ -12216,7 +12284,7 @@
       <c r="C14" s="45"/>
       <c r="D14" s="46"/>
       <c r="F14" s="8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G14" s="8">
         <v>6</v>
@@ -12224,9 +12292,9 @@
       <c r="H14" s="44"/>
       <c r="I14" s="58"/>
       <c r="J14" s="59"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="59"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -13052,7 +13120,7 @@
       <c r="C15" s="45"/>
       <c r="D15" s="46"/>
       <c r="F15" s="8" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G15" s="8">
         <v>30</v>
@@ -13060,9 +13128,9 @@
       <c r="H15" s="44"/>
       <c r="I15" s="58"/>
       <c r="J15" s="59"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="59"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
@@ -13890,9 +13958,9 @@
       <c r="H16" s="44"/>
       <c r="I16" s="58"/>
       <c r="J16" s="59"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="59"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
@@ -14720,9 +14788,9 @@
       <c r="H17" s="44"/>
       <c r="I17" s="58"/>
       <c r="J17" s="59"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="58"/>
+      <c r="M17" s="59"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
@@ -15550,9 +15618,9 @@
       <c r="H18" s="44"/>
       <c r="I18" s="58"/>
       <c r="J18" s="59"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="58"/>
+      <c r="M18" s="59"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
@@ -16380,9 +16448,9 @@
       <c r="H19" s="44"/>
       <c r="I19" s="58"/>
       <c r="J19" s="59"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="58"/>
+      <c r="M19" s="59"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -17210,9 +17278,9 @@
       <c r="H20" s="44"/>
       <c r="I20" s="45"/>
       <c r="J20" s="46"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="46"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
@@ -18037,33 +18105,35 @@
         <v>6</v>
       </c>
       <c r="B21" s="50">
-        <f>D21/D88</f>
-        <v>8.0777520824445989E-2</v>
+        <f>D21/D92</f>
+        <v>6.1962601128941287E-2</v>
       </c>
       <c r="C21" s="51" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D21" s="52">
         <f>14365+26</f>
         <v>14391</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G21" s="9">
         <v>1244</v>
       </c>
-      <c r="H21" s="50" t="e">
-        <f>J21/J88</f>
-        <v>#DIV/0!</v>
+      <c r="H21" s="50">
+        <f>SUM(J21:J24)/J88</f>
+        <v>6.3704281795887677E-2</v>
       </c>
       <c r="I21" s="51" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
-      <c r="J21" s="52"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
+      <c r="J21" s="52">
+        <v>2286</v>
+      </c>
+      <c r="K21" s="50"/>
+      <c r="L21" s="51"/>
+      <c r="M21" s="52"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
@@ -18889,19 +18959,21 @@
       <c r="C22" s="53"/>
       <c r="D22" s="54"/>
       <c r="F22" s="10" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G22" s="10">
         <v>35</v>
       </c>
       <c r="H22" s="55"/>
       <c r="I22" s="53" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
-      <c r="J22" s="54"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
+      <c r="J22" s="54">
+        <v>16624</v>
+      </c>
+      <c r="K22" s="55"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="54"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
@@ -19727,17 +19799,21 @@
       <c r="C23" s="53"/>
       <c r="D23" s="54"/>
       <c r="F23" s="10" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G23" s="10">
         <v>2</v>
       </c>
       <c r="H23" s="55"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
+      <c r="I23" s="53" t="s">
+        <v>103</v>
+      </c>
+      <c r="J23" s="54">
+        <v>849</v>
+      </c>
+      <c r="K23" s="55"/>
+      <c r="L23" s="53"/>
+      <c r="M23" s="54"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
@@ -20563,17 +20639,21 @@
       <c r="C24" s="53"/>
       <c r="D24" s="54"/>
       <c r="F24" s="10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G24" s="10">
         <v>1</v>
       </c>
       <c r="H24" s="55"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="54"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
+      <c r="I24" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="J24" s="54">
+        <v>2607</v>
+      </c>
+      <c r="K24" s="55"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="54"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
@@ -21399,7 +21479,7 @@
       <c r="C25" s="53"/>
       <c r="D25" s="54"/>
       <c r="F25" s="10" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G25" s="10">
         <v>29</v>
@@ -21407,9 +21487,9 @@
       <c r="H25" s="55"/>
       <c r="I25" s="53"/>
       <c r="J25" s="54"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="53"/>
+      <c r="M25" s="54"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
@@ -22237,9 +22317,9 @@
       <c r="H26" s="55"/>
       <c r="I26" s="53"/>
       <c r="J26" s="54"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
+      <c r="K26" s="55"/>
+      <c r="L26" s="53"/>
+      <c r="M26" s="54"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
@@ -23067,9 +23147,9 @@
       <c r="H27" s="55"/>
       <c r="I27" s="53"/>
       <c r="J27" s="54"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="53"/>
+      <c r="M27" s="54"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
@@ -23897,9 +23977,9 @@
       <c r="H28" s="60"/>
       <c r="I28" s="61"/>
       <c r="J28" s="62"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
+      <c r="K28" s="60"/>
+      <c r="L28" s="61"/>
+      <c r="M28" s="62"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
@@ -24724,33 +24804,35 @@
         <v>0</v>
       </c>
       <c r="B29" s="63">
-        <f>D29/D88</f>
-        <v>5.006847931026741E-3</v>
+        <f>D29/D92</f>
+        <v>3.8406393028292424E-3</v>
       </c>
       <c r="C29" s="45" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D29" s="46">
         <f>885+7</f>
         <v>892</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G29" s="8">
         <v>3</v>
       </c>
-      <c r="H29" s="63" t="e">
+      <c r="H29" s="63">
         <f>J29/J88</f>
-        <v>#DIV/0!</v>
+        <v>1.5990156398198757E-2</v>
       </c>
       <c r="I29" s="45" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
-      <c r="J29" s="46"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
+      <c r="J29" s="46">
+        <v>5614</v>
+      </c>
+      <c r="K29" s="63"/>
+      <c r="L29" s="45"/>
+      <c r="M29" s="46"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
@@ -25578,9 +25660,9 @@
       <c r="H30" s="44"/>
       <c r="I30" s="45"/>
       <c r="J30" s="46"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
+      <c r="K30" s="44"/>
+      <c r="L30" s="45"/>
+      <c r="M30" s="46"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
@@ -26408,9 +26490,9 @@
       <c r="H31" s="44"/>
       <c r="I31" s="45"/>
       <c r="J31" s="46"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
+      <c r="K31" s="44"/>
+      <c r="L31" s="45"/>
+      <c r="M31" s="46"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
@@ -27238,9 +27320,9 @@
       <c r="H32" s="44"/>
       <c r="I32" s="45"/>
       <c r="J32" s="46"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
+      <c r="K32" s="44"/>
+      <c r="L32" s="45"/>
+      <c r="M32" s="46"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
@@ -28068,9 +28150,9 @@
       <c r="H33" s="44"/>
       <c r="I33" s="45"/>
       <c r="J33" s="46"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
+      <c r="K33" s="44"/>
+      <c r="L33" s="45"/>
+      <c r="M33" s="46"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
@@ -28898,9 +28980,9 @@
       <c r="H34" s="47"/>
       <c r="I34" s="48"/>
       <c r="J34" s="49"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
+      <c r="K34" s="47"/>
+      <c r="L34" s="48"/>
+      <c r="M34" s="49"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
@@ -29722,35 +29804,37 @@
     </row>
     <row r="35" spans="1:831" s="10" customFormat="1" ht="19" x14ac:dyDescent="0.2">
       <c r="A35" s="26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B35" s="50">
-        <f>D35/D88</f>
-        <v>4.5072857495677944E-2</v>
+        <f>(D35+D36+D37)/D92</f>
+        <v>6.12995311147757E-2</v>
       </c>
       <c r="C35" s="51" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D35" s="52">
         <v>8030</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G35" s="10">
         <v>119</v>
       </c>
-      <c r="H35" s="50" t="e">
-        <f>J35/J88</f>
-        <v>#DIV/0!</v>
+      <c r="H35" s="50">
+        <f>SUM(J35:J38)/J88</f>
+        <v>4.1954934760503691E-3</v>
       </c>
       <c r="I35" s="51" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
-      <c r="J35" s="52"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
+      <c r="J35" s="52">
+        <v>1461</v>
+      </c>
+      <c r="K35" s="50"/>
+      <c r="L35" s="51"/>
+      <c r="M35" s="52"/>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
@@ -30574,25 +30658,27 @@
       <c r="A36" s="27"/>
       <c r="B36" s="55"/>
       <c r="C36" s="53" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D36" s="54">
         <v>37</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G36" s="10">
         <v>186</v>
       </c>
       <c r="H36" s="55"/>
       <c r="I36" s="53" t="s">
-        <v>23</v>
+        <v>101</v>
       </c>
-      <c r="J36" s="54"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
+      <c r="J36" s="54">
+        <v>2</v>
+      </c>
+      <c r="K36" s="55"/>
+      <c r="L36" s="53"/>
+      <c r="M36" s="54"/>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
@@ -31416,26 +31502,28 @@
       <c r="A37" s="27"/>
       <c r="B37" s="55"/>
       <c r="C37" s="56" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D37" s="54">
         <f>5732+438</f>
         <v>6170</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G37" s="10">
         <v>234</v>
       </c>
       <c r="H37" s="55"/>
       <c r="I37" s="53" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
-      <c r="J37" s="54"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
+      <c r="J37" s="54">
+        <v>8</v>
+      </c>
+      <c r="K37" s="55"/>
+      <c r="L37" s="53"/>
+      <c r="M37" s="54"/>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
@@ -32261,17 +32349,21 @@
       <c r="C38" s="56"/>
       <c r="D38" s="54"/>
       <c r="F38" s="10" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G38" s="10">
         <v>690</v>
       </c>
       <c r="H38" s="55"/>
-      <c r="I38" s="53"/>
-      <c r="J38" s="54"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
+      <c r="I38" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="J38" s="54">
+        <v>2</v>
+      </c>
+      <c r="K38" s="55"/>
+      <c r="L38" s="53"/>
+      <c r="M38" s="54"/>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
@@ -33097,7 +33189,7 @@
       <c r="C39" s="56"/>
       <c r="D39" s="54"/>
       <c r="F39" s="10" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G39" s="10">
         <v>3072</v>
@@ -33105,9 +33197,9 @@
       <c r="H39" s="55"/>
       <c r="I39" s="53"/>
       <c r="J39" s="54"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
+      <c r="K39" s="55"/>
+      <c r="L39" s="53"/>
+      <c r="M39" s="54"/>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
@@ -33933,7 +34025,7 @@
       <c r="C40" s="56"/>
       <c r="D40" s="54"/>
       <c r="F40" s="10" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G40" s="10">
         <v>20084</v>
@@ -33941,9 +34033,9 @@
       <c r="H40" s="55"/>
       <c r="I40" s="53"/>
       <c r="J40" s="54"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
+      <c r="K40" s="55"/>
+      <c r="L40" s="53"/>
+      <c r="M40" s="54"/>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
@@ -34769,7 +34861,7 @@
       <c r="C41" s="53"/>
       <c r="D41" s="54"/>
       <c r="F41" s="10" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G41" s="10">
         <v>684</v>
@@ -34777,9 +34869,9 @@
       <c r="H41" s="55"/>
       <c r="I41" s="53"/>
       <c r="J41" s="54"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
+      <c r="K41" s="55"/>
+      <c r="L41" s="53"/>
+      <c r="M41" s="54"/>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
@@ -35605,7 +35697,7 @@
       <c r="C42" s="53"/>
       <c r="D42" s="54"/>
       <c r="F42" s="10" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G42" s="10">
         <v>163</v>
@@ -35613,9 +35705,9 @@
       <c r="H42" s="55"/>
       <c r="I42" s="53"/>
       <c r="J42" s="54"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
+      <c r="K42" s="55"/>
+      <c r="L42" s="53"/>
+      <c r="M42" s="54"/>
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
@@ -36441,7 +36533,7 @@
       <c r="C43" s="53"/>
       <c r="D43" s="54"/>
       <c r="F43" s="10" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G43" s="10">
         <v>1</v>
@@ -36449,9 +36541,9 @@
       <c r="H43" s="55"/>
       <c r="I43" s="53"/>
       <c r="J43" s="54"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
+      <c r="K43" s="55"/>
+      <c r="L43" s="53"/>
+      <c r="M43" s="54"/>
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
@@ -37277,7 +37369,7 @@
       <c r="C44" s="53"/>
       <c r="D44" s="54"/>
       <c r="F44" s="10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G44" s="10">
         <v>4</v>
@@ -37285,9 +37377,9 @@
       <c r="H44" s="55"/>
       <c r="I44" s="53"/>
       <c r="J44" s="54"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
+      <c r="K44" s="55"/>
+      <c r="L44" s="53"/>
+      <c r="M44" s="54"/>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
@@ -38113,7 +38205,7 @@
       <c r="C45" s="53"/>
       <c r="D45" s="54"/>
       <c r="F45" s="10" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G45" s="10">
         <v>105</v>
@@ -38121,9 +38213,9 @@
       <c r="H45" s="55"/>
       <c r="I45" s="53"/>
       <c r="J45" s="54"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
+      <c r="K45" s="55"/>
+      <c r="L45" s="53"/>
+      <c r="M45" s="54"/>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
@@ -38949,7 +39041,7 @@
       <c r="C46" s="53"/>
       <c r="D46" s="54"/>
       <c r="F46" s="10" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G46" s="10">
         <v>1</v>
@@ -38957,9 +39049,9 @@
       <c r="H46" s="55"/>
       <c r="I46" s="53"/>
       <c r="J46" s="54"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
+      <c r="K46" s="55"/>
+      <c r="L46" s="53"/>
+      <c r="M46" s="54"/>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
@@ -39785,7 +39877,7 @@
       <c r="C47" s="53"/>
       <c r="D47" s="54"/>
       <c r="F47" s="10" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G47" s="10">
         <v>3</v>
@@ -39793,9 +39885,9 @@
       <c r="H47" s="55"/>
       <c r="I47" s="53"/>
       <c r="J47" s="54"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
+      <c r="K47" s="55"/>
+      <c r="L47" s="53"/>
+      <c r="M47" s="54"/>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
@@ -40621,7 +40713,7 @@
       <c r="C48" s="53"/>
       <c r="D48" s="54"/>
       <c r="F48" s="10" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G48" s="10">
         <v>14</v>
@@ -40629,9 +40721,9 @@
       <c r="H48" s="55"/>
       <c r="I48" s="53"/>
       <c r="J48" s="54"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
+      <c r="K48" s="55"/>
+      <c r="L48" s="53"/>
+      <c r="M48" s="54"/>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
@@ -41457,7 +41549,7 @@
       <c r="C49" s="53"/>
       <c r="D49" s="54"/>
       <c r="F49" s="10" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G49" s="10">
         <v>13</v>
@@ -41465,9 +41557,9 @@
       <c r="H49" s="55"/>
       <c r="I49" s="53"/>
       <c r="J49" s="54"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
+      <c r="K49" s="55"/>
+      <c r="L49" s="53"/>
+      <c r="M49" s="54"/>
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
       <c r="P49" s="1"/>
@@ -42293,7 +42385,7 @@
       <c r="C50" s="53"/>
       <c r="D50" s="54"/>
       <c r="F50" s="10" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G50" s="10">
         <v>309</v>
@@ -42301,9 +42393,9 @@
       <c r="H50" s="55"/>
       <c r="I50" s="53"/>
       <c r="J50" s="54"/>
-      <c r="K50" s="1"/>
-      <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
+      <c r="K50" s="55"/>
+      <c r="L50" s="53"/>
+      <c r="M50" s="54"/>
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
       <c r="P50" s="1"/>
@@ -43129,7 +43221,7 @@
       <c r="C51" s="53"/>
       <c r="D51" s="54"/>
       <c r="F51" s="10" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G51" s="10">
         <v>4</v>
@@ -43137,9 +43229,9 @@
       <c r="H51" s="55"/>
       <c r="I51" s="53"/>
       <c r="J51" s="54"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
+      <c r="K51" s="55"/>
+      <c r="L51" s="53"/>
+      <c r="M51" s="54"/>
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
@@ -43965,7 +44057,7 @@
       <c r="C52" s="53"/>
       <c r="D52" s="54"/>
       <c r="F52" s="10" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G52" s="10">
         <v>3</v>
@@ -43973,9 +44065,9 @@
       <c r="H52" s="55"/>
       <c r="I52" s="53"/>
       <c r="J52" s="54"/>
-      <c r="K52" s="1"/>
-      <c r="L52" s="1"/>
-      <c r="M52" s="1"/>
+      <c r="K52" s="55"/>
+      <c r="L52" s="53"/>
+      <c r="M52" s="54"/>
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
       <c r="P52" s="1"/>
@@ -44801,7 +44893,7 @@
       <c r="C53" s="53"/>
       <c r="D53" s="54"/>
       <c r="F53" s="10" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G53" s="10">
         <v>2</v>
@@ -44809,9 +44901,9 @@
       <c r="H53" s="55"/>
       <c r="I53" s="53"/>
       <c r="J53" s="54"/>
-      <c r="K53" s="1"/>
-      <c r="L53" s="1"/>
-      <c r="M53" s="1"/>
+      <c r="K53" s="55"/>
+      <c r="L53" s="53"/>
+      <c r="M53" s="54"/>
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
@@ -45637,7 +45729,7 @@
       <c r="C54" s="53"/>
       <c r="D54" s="54"/>
       <c r="F54" s="10" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G54" s="10">
         <v>5159</v>
@@ -45645,9 +45737,9 @@
       <c r="H54" s="55"/>
       <c r="I54" s="53"/>
       <c r="J54" s="54"/>
-      <c r="K54" s="1"/>
-      <c r="L54" s="1"/>
-      <c r="M54" s="1"/>
+      <c r="K54" s="55"/>
+      <c r="L54" s="53"/>
+      <c r="M54" s="54"/>
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
       <c r="P54" s="1"/>
@@ -46473,7 +46565,7 @@
       <c r="C55" s="53"/>
       <c r="D55" s="54"/>
       <c r="F55" s="10" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G55" s="10">
         <v>287</v>
@@ -46481,9 +46573,9 @@
       <c r="H55" s="55"/>
       <c r="I55" s="53"/>
       <c r="J55" s="54"/>
-      <c r="K55" s="1"/>
-      <c r="L55" s="1"/>
-      <c r="M55" s="1"/>
+      <c r="K55" s="55"/>
+      <c r="L55" s="53"/>
+      <c r="M55" s="54"/>
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
       <c r="P55" s="1"/>
@@ -47309,7 +47401,7 @@
       <c r="C56" s="53"/>
       <c r="D56" s="54"/>
       <c r="F56" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G56" s="10">
         <v>21</v>
@@ -47317,9 +47409,9 @@
       <c r="H56" s="55"/>
       <c r="I56" s="53"/>
       <c r="J56" s="54"/>
-      <c r="K56" s="1"/>
-      <c r="L56" s="1"/>
-      <c r="M56" s="1"/>
+      <c r="K56" s="55"/>
+      <c r="L56" s="53"/>
+      <c r="M56" s="54"/>
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
       <c r="P56" s="1"/>
@@ -48145,7 +48237,7 @@
       <c r="C57" s="53"/>
       <c r="D57" s="54"/>
       <c r="F57" s="10" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G57" s="10">
         <v>1</v>
@@ -48153,9 +48245,9 @@
       <c r="H57" s="55"/>
       <c r="I57" s="53"/>
       <c r="J57" s="54"/>
-      <c r="K57" s="1"/>
-      <c r="L57" s="1"/>
-      <c r="M57" s="1"/>
+      <c r="K57" s="55"/>
+      <c r="L57" s="53"/>
+      <c r="M57" s="54"/>
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
       <c r="P57" s="1"/>
@@ -48981,7 +49073,7 @@
       <c r="C58" s="53"/>
       <c r="D58" s="54"/>
       <c r="F58" s="10" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G58" s="10">
         <v>2</v>
@@ -48989,9 +49081,9 @@
       <c r="H58" s="55"/>
       <c r="I58" s="53"/>
       <c r="J58" s="54"/>
-      <c r="K58" s="1"/>
-      <c r="L58" s="1"/>
-      <c r="M58" s="1"/>
+      <c r="K58" s="55"/>
+      <c r="L58" s="53"/>
+      <c r="M58" s="54"/>
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
       <c r="P58" s="1"/>
@@ -49817,7 +49909,7 @@
       <c r="C59" s="53"/>
       <c r="D59" s="54"/>
       <c r="F59" s="10" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G59" s="10">
         <v>30</v>
@@ -49825,9 +49917,9 @@
       <c r="H59" s="55"/>
       <c r="I59" s="53"/>
       <c r="J59" s="54"/>
-      <c r="K59" s="1"/>
-      <c r="L59" s="1"/>
-      <c r="M59" s="1"/>
+      <c r="K59" s="55"/>
+      <c r="L59" s="53"/>
+      <c r="M59" s="54"/>
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
       <c r="P59" s="1"/>
@@ -50657,9 +50749,9 @@
       <c r="H60" s="64"/>
       <c r="I60" s="65"/>
       <c r="J60" s="66"/>
-      <c r="K60" s="1"/>
-      <c r="L60" s="1"/>
-      <c r="M60" s="1"/>
+      <c r="K60" s="64"/>
+      <c r="L60" s="65"/>
+      <c r="M60" s="66"/>
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
       <c r="P60" s="1"/>
@@ -51489,9 +51581,9 @@
       <c r="H61" s="55"/>
       <c r="I61" s="53"/>
       <c r="J61" s="54"/>
-      <c r="K61" s="1"/>
-      <c r="L61" s="1"/>
-      <c r="M61" s="1"/>
+      <c r="K61" s="55"/>
+      <c r="L61" s="53"/>
+      <c r="M61" s="54"/>
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
       <c r="P61" s="1"/>
@@ -52316,32 +52408,34 @@
         <v>1</v>
       </c>
       <c r="B62" s="67">
-        <f>SUM(D62:D68)/D88</f>
-        <v>0.42841105547946745</v>
+        <f>SUM(D62:D68)/D92</f>
+        <v>0.32862438805957295</v>
       </c>
       <c r="C62" s="69" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D62" s="68">
         <v>515</v>
       </c>
       <c r="F62" s="13" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G62" s="13">
         <v>24</v>
       </c>
-      <c r="H62" s="67" t="e">
-        <f>J62/J88</f>
-        <v>#DIV/0!</v>
+      <c r="H62" s="67">
+        <f>SUM(J62:J69)/J88</f>
+        <v>0.11688137833211333</v>
       </c>
       <c r="I62" s="69" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
-      <c r="J62" s="68"/>
-      <c r="K62" s="1"/>
-      <c r="L62" s="1"/>
-      <c r="M62" s="1"/>
+      <c r="J62" s="68">
+        <v>806</v>
+      </c>
+      <c r="K62" s="67"/>
+      <c r="L62" s="69"/>
+      <c r="M62" s="68"/>
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
       <c r="P62" s="1"/>
@@ -53165,26 +53259,28 @@
       <c r="A63" s="31"/>
       <c r="B63" s="55"/>
       <c r="C63" s="56" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D63" s="54">
         <f>827+10</f>
         <v>837</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G63" s="10">
         <v>39</v>
       </c>
       <c r="H63" s="55"/>
       <c r="I63" s="53" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
-      <c r="J63" s="54"/>
-      <c r="K63" s="1"/>
-      <c r="L63" s="1"/>
-      <c r="M63" s="1"/>
+      <c r="J63" s="54">
+        <v>132</v>
+      </c>
+      <c r="K63" s="55"/>
+      <c r="L63" s="53"/>
+      <c r="M63" s="54"/>
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
       <c r="P63" s="1"/>
@@ -54008,26 +54104,28 @@
       <c r="A64" s="31"/>
       <c r="B64" s="55"/>
       <c r="C64" s="53" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D64" s="54">
         <f>2058+69</f>
         <v>2127</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G64" s="10">
         <v>109</v>
       </c>
       <c r="H64" s="55"/>
       <c r="I64" s="53" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
-      <c r="J64" s="54"/>
-      <c r="K64" s="1"/>
-      <c r="L64" s="1"/>
-      <c r="M64" s="1"/>
+      <c r="J64" s="54">
+        <v>444</v>
+      </c>
+      <c r="K64" s="55"/>
+      <c r="L64" s="53"/>
+      <c r="M64" s="54"/>
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
       <c r="P64" s="1"/>
@@ -54853,19 +54951,21 @@
       <c r="C65" s="53"/>
       <c r="D65" s="54"/>
       <c r="F65" s="10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G65" s="10">
         <v>835</v>
       </c>
       <c r="H65" s="55"/>
       <c r="I65" s="53" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
-      <c r="J65" s="54"/>
-      <c r="K65" s="1"/>
-      <c r="L65" s="1"/>
-      <c r="M65" s="1"/>
+      <c r="J65" s="54">
+        <v>1443</v>
+      </c>
+      <c r="K65" s="55"/>
+      <c r="L65" s="53"/>
+      <c r="M65" s="54"/>
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
       <c r="P65" s="1"/>
@@ -55691,7 +55791,7 @@
       <c r="C66" s="53"/>
       <c r="D66" s="54"/>
       <c r="F66" s="10" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G66" s="10">
         <v>1</v>
@@ -55699,9 +55799,9 @@
       <c r="H66" s="55"/>
       <c r="I66" s="53"/>
       <c r="J66" s="54"/>
-      <c r="K66" s="1"/>
-      <c r="L66" s="1"/>
-      <c r="M66" s="1"/>
+      <c r="K66" s="55"/>
+      <c r="L66" s="53"/>
+      <c r="M66" s="54"/>
       <c r="N66" s="1"/>
       <c r="O66" s="1"/>
       <c r="P66" s="1"/>
@@ -56527,7 +56627,7 @@
       <c r="C67" s="53"/>
       <c r="D67" s="54"/>
       <c r="F67" s="10" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G67" s="10">
         <v>11</v>
@@ -56535,9 +56635,9 @@
       <c r="H67" s="55"/>
       <c r="I67" s="53"/>
       <c r="J67" s="54"/>
-      <c r="K67" s="1"/>
-      <c r="L67" s="1"/>
-      <c r="M67" s="1"/>
+      <c r="K67" s="55"/>
+      <c r="L67" s="53"/>
+      <c r="M67" s="54"/>
       <c r="N67" s="1"/>
       <c r="O67" s="1"/>
       <c r="P67" s="1"/>
@@ -57361,26 +57461,28 @@
       <c r="A68" s="31"/>
       <c r="B68" s="55"/>
       <c r="C68" s="56" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D68" s="54">
         <f>55631+17214</f>
         <v>72845</v>
       </c>
       <c r="F68" s="10" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G68" s="10">
         <v>73</v>
       </c>
       <c r="H68" s="55"/>
       <c r="I68" s="53" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
-      <c r="J68" s="54"/>
-      <c r="K68" s="1"/>
-      <c r="L68" s="1"/>
-      <c r="M68" s="1"/>
+      <c r="J68" s="54">
+        <v>36083</v>
+      </c>
+      <c r="K68" s="55"/>
+      <c r="L68" s="53"/>
+      <c r="M68" s="54"/>
       <c r="N68" s="1"/>
       <c r="O68" s="1"/>
       <c r="P68" s="1"/>
@@ -58206,17 +58308,21 @@
       <c r="C69" s="53"/>
       <c r="D69" s="54"/>
       <c r="F69" s="10" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G69" s="10">
         <v>73</v>
       </c>
       <c r="H69" s="55"/>
-      <c r="I69" s="53"/>
-      <c r="J69" s="54"/>
-      <c r="K69" s="1"/>
-      <c r="L69" s="1"/>
-      <c r="M69" s="1"/>
+      <c r="I69" s="53" t="s">
+        <v>105</v>
+      </c>
+      <c r="J69" s="54">
+        <v>2128</v>
+      </c>
+      <c r="K69" s="55"/>
+      <c r="L69" s="53"/>
+      <c r="M69" s="54"/>
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
       <c r="P69" s="1"/>
@@ -59042,7 +59148,7 @@
       <c r="C70" s="53"/>
       <c r="D70" s="54"/>
       <c r="F70" s="10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G70" s="10">
         <v>532</v>
@@ -59050,9 +59156,9 @@
       <c r="H70" s="55"/>
       <c r="I70" s="53"/>
       <c r="J70" s="54"/>
-      <c r="K70" s="1"/>
-      <c r="L70" s="1"/>
-      <c r="M70" s="1"/>
+      <c r="K70" s="55"/>
+      <c r="L70" s="53"/>
+      <c r="M70" s="54"/>
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
       <c r="P70" s="1"/>
@@ -59878,7 +59984,7 @@
       <c r="C71" s="53"/>
       <c r="D71" s="54"/>
       <c r="F71" s="10" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G71" s="10">
         <v>15</v>
@@ -59886,9 +59992,9 @@
       <c r="H71" s="55"/>
       <c r="I71" s="53"/>
       <c r="J71" s="54"/>
-      <c r="K71" s="1"/>
-      <c r="L71" s="1"/>
-      <c r="M71" s="1"/>
+      <c r="K71" s="55"/>
+      <c r="L71" s="53"/>
+      <c r="M71" s="54"/>
       <c r="N71" s="1"/>
       <c r="O71" s="1"/>
       <c r="P71" s="1"/>
@@ -60714,7 +60820,7 @@
       <c r="C72" s="53"/>
       <c r="D72" s="54"/>
       <c r="F72" s="10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G72" s="10">
         <v>2</v>
@@ -60722,9 +60828,9 @@
       <c r="H72" s="55"/>
       <c r="I72" s="53"/>
       <c r="J72" s="54"/>
-      <c r="K72" s="1"/>
-      <c r="L72" s="1"/>
-      <c r="M72" s="1"/>
+      <c r="K72" s="55"/>
+      <c r="L72" s="53"/>
+      <c r="M72" s="54"/>
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
       <c r="P72" s="1"/>
@@ -61550,7 +61656,7 @@
       <c r="C73" s="53"/>
       <c r="D73" s="54"/>
       <c r="F73" s="10" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G73" s="10">
         <v>1</v>
@@ -61558,9 +61664,9 @@
       <c r="H73" s="55"/>
       <c r="I73" s="53"/>
       <c r="J73" s="54"/>
-      <c r="K73" s="1"/>
-      <c r="L73" s="1"/>
-      <c r="M73" s="1"/>
+      <c r="K73" s="55"/>
+      <c r="L73" s="53"/>
+      <c r="M73" s="54"/>
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
       <c r="P73" s="1"/>
@@ -62386,7 +62492,7 @@
       <c r="C74" s="53"/>
       <c r="D74" s="54"/>
       <c r="F74" s="10" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G74" s="10">
         <v>178</v>
@@ -62394,9 +62500,9 @@
       <c r="H74" s="55"/>
       <c r="I74" s="53"/>
       <c r="J74" s="54"/>
-      <c r="K74" s="1"/>
-      <c r="L74" s="1"/>
-      <c r="M74" s="1"/>
+      <c r="K74" s="55"/>
+      <c r="L74" s="53"/>
+      <c r="M74" s="54"/>
       <c r="N74" s="1"/>
       <c r="O74" s="1"/>
       <c r="P74" s="1"/>
@@ -63222,7 +63328,7 @@
       <c r="C75" s="53"/>
       <c r="D75" s="54"/>
       <c r="F75" s="10" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G75" s="10">
         <v>1787</v>
@@ -63230,9 +63336,9 @@
       <c r="H75" s="55"/>
       <c r="I75" s="53"/>
       <c r="J75" s="54"/>
-      <c r="K75" s="1"/>
-      <c r="L75" s="1"/>
-      <c r="M75" s="1"/>
+      <c r="K75" s="55"/>
+      <c r="L75" s="53"/>
+      <c r="M75" s="54"/>
       <c r="N75" s="1"/>
       <c r="O75" s="1"/>
       <c r="P75" s="1"/>
@@ -64058,7 +64164,7 @@
       <c r="C76" s="53"/>
       <c r="D76" s="54"/>
       <c r="F76" s="10" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G76" s="10">
         <v>37</v>
@@ -64066,9 +64172,9 @@
       <c r="H76" s="55"/>
       <c r="I76" s="53"/>
       <c r="J76" s="54"/>
-      <c r="K76" s="1"/>
-      <c r="L76" s="1"/>
-      <c r="M76" s="1"/>
+      <c r="K76" s="55"/>
+      <c r="L76" s="53"/>
+      <c r="M76" s="54"/>
       <c r="N76" s="1"/>
       <c r="O76" s="1"/>
       <c r="P76" s="1"/>
@@ -64894,7 +65000,7 @@
       <c r="C77" s="53"/>
       <c r="D77" s="54"/>
       <c r="F77" s="10" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G77" s="10">
         <v>4</v>
@@ -64902,9 +65008,9 @@
       <c r="H77" s="55"/>
       <c r="I77" s="53"/>
       <c r="J77" s="54"/>
-      <c r="K77" s="1"/>
-      <c r="L77" s="1"/>
-      <c r="M77" s="1"/>
+      <c r="K77" s="55"/>
+      <c r="L77" s="53"/>
+      <c r="M77" s="54"/>
       <c r="N77" s="1"/>
       <c r="O77" s="1"/>
       <c r="P77" s="1"/>
@@ -65730,7 +65836,7 @@
       <c r="C78" s="71"/>
       <c r="D78" s="72"/>
       <c r="F78" s="12" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G78" s="12">
         <v>4</v>
@@ -65738,9 +65844,9 @@
       <c r="H78" s="70"/>
       <c r="I78" s="71"/>
       <c r="J78" s="72"/>
-      <c r="K78" s="1"/>
-      <c r="L78" s="1"/>
-      <c r="M78" s="1"/>
+      <c r="K78" s="70"/>
+      <c r="L78" s="71"/>
+      <c r="M78" s="72"/>
       <c r="N78" s="1"/>
       <c r="O78" s="1"/>
       <c r="P78" s="1"/>
@@ -66565,33 +66671,35 @@
         <v>2</v>
       </c>
       <c r="B79" s="73">
-        <f>D79/D88</f>
-        <v>1.221962774197894E-2</v>
+        <f>D79/D92</f>
+        <v>9.3733988366135213E-3</v>
       </c>
       <c r="C79" s="53" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D79" s="54">
         <f>2174+3</f>
         <v>2177</v>
       </c>
       <c r="F79" s="10" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G79" s="10">
         <v>255</v>
       </c>
-      <c r="H79" s="73" t="e">
-        <f>J79/J88</f>
-        <v>#DIV/0!</v>
+      <c r="H79" s="73">
+        <f>(J79+J80)/J88</f>
+        <v>2.0564469040789996E-3</v>
       </c>
       <c r="I79" s="53" t="s">
-        <v>21</v>
+        <v>107</v>
       </c>
-      <c r="J79" s="54"/>
-      <c r="K79" s="1"/>
-      <c r="L79" s="1"/>
-      <c r="M79" s="1"/>
+      <c r="J79" s="54">
+        <v>490</v>
+      </c>
+      <c r="K79" s="73"/>
+      <c r="L79" s="53"/>
+      <c r="M79" s="54"/>
       <c r="N79" s="1"/>
       <c r="O79" s="1"/>
       <c r="P79" s="1"/>
@@ -67417,11 +67525,15 @@
       <c r="C80" s="53"/>
       <c r="D80" s="54"/>
       <c r="H80" s="55"/>
-      <c r="I80" s="53"/>
-      <c r="J80" s="54"/>
-      <c r="K80" s="1"/>
-      <c r="L80" s="1"/>
-      <c r="M80" s="1"/>
+      <c r="I80" s="53" t="s">
+        <v>106</v>
+      </c>
+      <c r="J80" s="54">
+        <v>232</v>
+      </c>
+      <c r="K80" s="55"/>
+      <c r="L80" s="53"/>
+      <c r="M80" s="54"/>
       <c r="N80" s="1"/>
       <c r="O80" s="1"/>
       <c r="P80" s="1"/>
@@ -68249,9 +68361,9 @@
       <c r="H81" s="55"/>
       <c r="I81" s="53"/>
       <c r="J81" s="54"/>
-      <c r="K81" s="1"/>
-      <c r="L81" s="1"/>
-      <c r="M81" s="1"/>
+      <c r="K81" s="55"/>
+      <c r="L81" s="53"/>
+      <c r="M81" s="54"/>
       <c r="N81" s="1"/>
       <c r="O81" s="1"/>
       <c r="P81" s="1"/>
@@ -69079,9 +69191,9 @@
       <c r="H82" s="55"/>
       <c r="I82" s="53"/>
       <c r="J82" s="54"/>
-      <c r="K82" s="1"/>
-      <c r="L82" s="1"/>
-      <c r="M82" s="1"/>
+      <c r="K82" s="55"/>
+      <c r="L82" s="53"/>
+      <c r="M82" s="54"/>
       <c r="N82" s="1"/>
       <c r="O82" s="1"/>
       <c r="P82" s="1"/>
@@ -69909,9 +70021,9 @@
       <c r="H83" s="55"/>
       <c r="I83" s="53"/>
       <c r="J83" s="54"/>
-      <c r="K83" s="1"/>
-      <c r="L83" s="1"/>
-      <c r="M83" s="1"/>
+      <c r="K83" s="55"/>
+      <c r="L83" s="53"/>
+      <c r="M83" s="54"/>
       <c r="N83" s="1"/>
       <c r="O83" s="1"/>
       <c r="P83" s="1"/>
@@ -70739,9 +70851,9 @@
       <c r="H84" s="55"/>
       <c r="I84" s="53"/>
       <c r="J84" s="54"/>
-      <c r="K84" s="1"/>
-      <c r="L84" s="1"/>
-      <c r="M84" s="1"/>
+      <c r="K84" s="55"/>
+      <c r="L84" s="53"/>
+      <c r="M84" s="54"/>
       <c r="N84" s="1"/>
       <c r="O84" s="1"/>
       <c r="P84" s="1"/>
@@ -71569,9 +71681,9 @@
       <c r="H85" s="55"/>
       <c r="I85" s="53"/>
       <c r="J85" s="54"/>
-      <c r="K85" s="1"/>
-      <c r="L85" s="1"/>
-      <c r="M85" s="1"/>
+      <c r="K85" s="55"/>
+      <c r="L85" s="53"/>
+      <c r="M85" s="54"/>
       <c r="N85" s="1"/>
       <c r="O85" s="1"/>
       <c r="P85" s="1"/>
@@ -72399,9 +72511,9 @@
       <c r="H86" s="55"/>
       <c r="I86" s="53"/>
       <c r="J86" s="54"/>
-      <c r="K86" s="1"/>
-      <c r="L86" s="1"/>
-      <c r="M86" s="1"/>
+      <c r="K86" s="55"/>
+      <c r="L86" s="53"/>
+      <c r="M86" s="54"/>
       <c r="N86" s="1"/>
       <c r="O86" s="1"/>
       <c r="P86" s="1"/>
@@ -73229,9 +73341,9 @@
       <c r="H87" s="60"/>
       <c r="I87" s="61"/>
       <c r="J87" s="62"/>
-      <c r="K87" s="1"/>
-      <c r="L87" s="1"/>
-      <c r="M87" s="1"/>
+      <c r="K87" s="60"/>
+      <c r="L87" s="61"/>
+      <c r="M87" s="62"/>
       <c r="N87" s="1"/>
       <c r="O87" s="1"/>
       <c r="P87" s="1"/>
@@ -74057,7 +74169,7 @@
       </c>
       <c r="B88" s="74">
         <f>SUM(B3:B87)</f>
-        <v>0.96515974763690249</v>
+        <v>0.76707728210184578</v>
       </c>
       <c r="C88" s="75"/>
       <c r="D88" s="76">
@@ -74072,18 +74184,21 @@
         <f>SUM(G5:G80)</f>
         <v>36684</v>
       </c>
-      <c r="H88" s="74" t="e">
+      <c r="H88" s="74">
         <f>SUM(H3:H87)</f>
-        <v>#DIV/0!</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="I88" s="75"/>
       <c r="J88" s="76">
-        <f>SUM(J3:J79)</f>
+        <f>SUM(J3:J80)</f>
+        <v>351091</v>
+      </c>
+      <c r="K88" s="74"/>
+      <c r="L88" s="75"/>
+      <c r="M88" s="76">
+        <f>SUM(M3:M80)</f>
         <v>0</v>
       </c>
-      <c r="K88" s="1"/>
-      <c r="L88" s="1"/>
-      <c r="M88" s="1"/>
       <c r="N88" s="1"/>
       <c r="O88" s="1"/>
       <c r="P88" s="1"/>
@@ -74913,10 +75028,16 @@
         <v>6.8167041975776416E-2</v>
       </c>
       <c r="F89" s="77" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G89">
         <v>15832</v>
+      </c>
+      <c r="L89" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="M89" s="19">
+        <v>50507</v>
       </c>
     </row>
     <row r="90" spans="1:831" x14ac:dyDescent="0.2">
@@ -74925,10 +75046,16 @@
         <v>6.4412515661799851E-3</v>
       </c>
       <c r="F90" s="77" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G90">
         <v>1496</v>
+      </c>
+      <c r="L90" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="M90" s="19">
+        <v>6255</v>
       </c>
     </row>
     <row r="91" spans="1:831" x14ac:dyDescent="0.2">
@@ -74937,15 +75064,21 @@
         <v>3.573689037385954E-4</v>
       </c>
       <c r="F91" s="77" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G91">
         <v>83</v>
       </c>
+      <c r="L91" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="M91" s="19">
+        <v>394</v>
+      </c>
     </row>
     <row r="92" spans="1:831" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D92" s="19">
         <f>D88+G88+SUM(G89:G92)</f>
@@ -74956,10 +75089,16 @@
         <v>8.6112988852673601E-6</v>
       </c>
       <c r="F92" s="77" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G92">
         <v>2</v>
+      </c>
+      <c r="L92" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="M92" s="19">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
